--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -575,7 +575,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44743</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44818</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>45219</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>45700.35604166667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>45823.36462962963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44560</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>44879</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>44256</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44260.67784722222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44454</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44349.62545138889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44692.61546296296</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44467.30258101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44271.83804398148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44595.47152777778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>44700.65099537037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44431</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>44409</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>44495.63184027778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>44846.66921296297</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44303</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>44330.85519675926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>44802.9119212963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>44802.91436342592</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44802</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44859.67766203704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>44474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44875.49847222222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>44409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>44638</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>44258</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>44460</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>44802.91337962963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44802</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44365.29659722222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>44582</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>44788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>44788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>44378</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>44837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44848.38094907408</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44638.41520833333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>44700</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44539.47350694444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>44344.65765046296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44642.53133101852</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>44572.37574074074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>44283</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>44378</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3814,7 +3814,7 @@
         <v>44508.68315972222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>44700</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>44700</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>45236.53990740741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>44760.48230324074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>45119.36762731482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>45079.91148148148</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>44581</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>45181.59420138889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>45265.56513888889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>45054.62291666667</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>45524</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44956</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>44956</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>45218.43747685185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>44839</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44601.58469907408</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45195.59162037037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>45434.65297453704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45266.64285879629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44343.54256944444</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>44343</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>45539</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>45434.56768518518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>45770.6984837963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>45085.6996412037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>45414.41197916667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>45582.66775462963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44806.43237268519</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>45663</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>44875</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>45218.430625</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>45329</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>45798.48481481482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>44337.32231481482</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>45798.56791666667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>45223.46996527778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>45219.42969907408</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>44915.61844907407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45799.62875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45800.31851851852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45800.56219907408</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45602.46759259259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>45218.434375</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>45800.69119212963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>45800.69806712963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>45195.59732638889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45800.56804398148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44636.65648148148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44988.55334490741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45800.55723379629</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45212.38681712963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45800.57162037037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>45805.45325231482</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44980.34850694444</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>45757.66442129629</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>45547</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45811</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>45426</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45874</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>45888.89115740741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44970.40100694444</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44557</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45323.40289351852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45891</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>45546</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45347</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>44809.64534722222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>45141.65546296296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>45901.30445601852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>45818.59465277778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>45237</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45258.47685185185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45824.65828703704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45181.56402777778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>45903</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45909</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44242.47204861111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44303</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45824.47820601852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44370.59787037037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44414</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>45911.68001157408</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>45810.65920138889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>45700.60534722222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>45008.46077546296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>45826</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>44994</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>45827.61452546297</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>45826.95120370371</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45013.46271990741</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>45827.60854166667</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>45917.56575231482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>45917.56846064814</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>45744.68833333333</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>45418.43135416666</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45917.62997685185</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>45916.58863425926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>45917.61854166666</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>45191.65244212963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>44536.46300925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>45069.64538194444</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>45352.37434027778</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>45923.44113425926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>45203.60788194444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>45089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>45216.48012731481</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44911</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>45281.30539351852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>44257.49313657408</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>44460.38868055555</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>44644.41532407407</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>45930</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>45512</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
         <v>45930.6357175926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10610,7 +10610,7 @@
         <v>45930.65747685185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>45219</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>45933.6312962963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>45837.77806712963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>45933.64509259259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>45837.8068287037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>45933.64008101852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>45556.88484953704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>45530</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45842.46383101852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44467.30171296297</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45942.93530092593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45453.42097222222</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>45219.39407407407</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>45943</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>45842.46575231481</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>45107</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11589,7 +11589,7 @@
         <v>45719.66356481481</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>45798</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11703,7 +11703,7 @@
         <v>44474</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>44798.41548611111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>45846.47069444445</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>45583.6671875</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>45947.62369212963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>45244.83949074074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>45428</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>45281.29634259259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>45281.29872685186</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>45861.555</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>45863.32291666666</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44984</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>45802.48922453704</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>45869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>45882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>45869</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>45868.56194444445</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>44928.47056712963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>45868.58482638889</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>45769.47458333334</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>45266</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>45562.48428240741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>45771.59141203704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44902</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44516</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44677.52666666666</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>45170.41726851852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44673.39659722222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44673.39770833333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>45769.46652777777</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>45874.81962962963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44578.39456018519</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44418</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>45961.50806712963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>45876.38861111111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>45880.42453703703</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>45961.50127314815</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>45670.35832175926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>45678.7609375</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>45678.76287037037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>45678.77015046297</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>45880.43133101852</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>45733.47277777778</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>45967.6405787037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>45161.80061342593</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>45643.46025462963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>45268</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>45730.66740740741</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44606.6459375</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>45968.46350694444</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44911.38021990741</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>44935</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>44935.54856481482</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>45473.77956018518</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>45218.44605324074</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44977</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>45974.64311342593</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>45974.44787037037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>45974.56116898148</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44887.44704861111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>45978.65131944444</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45747</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45614.80849537037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45225.64645833334</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15557,7 +15557,7 @@
         <v>45236</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>45980.48079861111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>45258.48143518518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         <v>45980.49359953704</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44565</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>46021.32947916666</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44992</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>45594</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>46029.35577546297</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>46029.36862268519</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>46029.36269675926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>45265.54988425926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>45265.55644675926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>45265.55729166666</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>45203</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>45378.75538194444</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>46034</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>45181.35542824074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>45547</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16702,7 +16702,7 @@
         <v>44461.34996527778</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>44956</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>44616.44555555555</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>45209.37945601852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44958.44938657407</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45470.5</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>44818.43640046296</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>45160</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44973.60834490741</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17215,7 +17215,7 @@
         <v>45092.59658564815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>46036</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>46036</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>45999.44767361111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>45742.63163194444</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>45594</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>45666.70684027778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>45678.75651620371</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>45678.75866898148</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45678.76875</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>46042.67481481482</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45558.33003472222</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44835</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>46042.80094907407</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>45266.66293981481</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45673.6791087963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>45281.30091435185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>45512</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>45428</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45077.3275462963</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45075.49745370371</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>46006.7902662037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>45680.74355324074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>46006.78265046296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>45275.29770833333</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44823.74258101852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>45155</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44999</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>46050</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44579.31209490741</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>45404.59559027778</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>46049</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>45306.81612268519</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>46049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>45281.30739583333</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>45040.40766203704</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>46049</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>46013.43255787037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>46013.43053240741</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>46049</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>46049</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>46049</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>46013.42674768518</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>46051</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>45080</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>45021.58115740741</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>45614.80997685185</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44461.34650462963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44992</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45476.59524305556</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>45127.60701388889</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>45564</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>45473.86574074074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44498.45456018519</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>45370.62961805556</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44553</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>45357.42295138889</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>45361.76549768518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>45191.63966435185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>45282.48534722222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>45026</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>45218.4646412037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>45117</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>44700.39484953704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>45281</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20965,7 +20965,7 @@
         <v>45240.40707175926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45625</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45196.56533564815</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21136,7 +21136,7 @@
         <v>44902.70481481482</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
         <v>45268</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21255,7 +21255,7 @@
         <v>45296.53465277778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44790.59928240741</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
         <v>44587.37592592592</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44498.59428240741</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44601.58173611111</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44601.58780092592</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44572.34041666667</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>45707.6121412037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>45141</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>45407.67643518518</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>45054</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>45069.6466087963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>45210.69048611111</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>45707</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>45282.66887731481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>45593</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44531</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>45166.33351851852</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45532.63335648148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>45687.4494675926</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44844.66922453704</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45371.58354166667</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>45230.83997685185</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>45680.54928240741</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>45257</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>45090</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>45715</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45217</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45372.65918981482</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45678.76413194444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>44581.43471064815</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>44553.3641087963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44810.89967592592</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>45671</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         <v>45344</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23332,7 +23332,7 @@
         <v>44848.38537037037</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>44333.80888888889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23446,7 +23446,7 @@
         <v>45678.75386574074</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>45678.77172453704</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>45230.39855324074</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>44463.6044675926</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>45258.47369212963</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>45080</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>44984</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>44370.60665509259</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>45275</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44950</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>45681.6758912037</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>45681.67857638889</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>45462</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>45372.6037037037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>45566.64170138889</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>45400.58571759259</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>45173</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>45306.79482638889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>45428.37866898148</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>45628.49255787037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>45265.54759259259</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45230.35402777778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45607.59543981482</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45581.38583333333</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24819,7 +24819,7 @@
         <v>45783.50890046296</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         <v>45609.58574074074</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24933,7 +24933,7 @@
         <v>45637.60519675926</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>45637.61474537037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>45784.54696759259</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>45609.57759259259</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>45609.64653935185</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>45784.54361111111</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>45785</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>45444.36789351852</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>45232.53655092593</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>45593</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25518,7 +25518,7 @@
         <v>45786.44407407408</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>45628.33141203703</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>45600.45695601852</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>45786.44797453703</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>45790.70548611111</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>45790.33270833334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25860,7 +25860,7 @@
         <v>45792.37166666667</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>45797</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>45797.47237268519</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -575,7 +575,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44743</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44818</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>45219</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>45700.35604166667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>45823.36462962963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44560</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>44879</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>44256</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44260.67784722222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44454</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44349.62545138889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44692.61546296296</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44467.30258101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44271.83804398148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44595.47152777778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>44700.65099537037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44431</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>44409</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>44495.63184027778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>44846.66921296297</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44303</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>44330.85519675926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>44802.9119212963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>44802.91436342592</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44802</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44859.67766203704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>44474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44875.49847222222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>44409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>44638</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>44258</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>44460</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>44802.91337962963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44802</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44365.29659722222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>44582</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>44788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>44788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>44378</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>44837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44848.38094907408</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44638.41520833333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>44700</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44539.47350694444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>44344.65765046296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44642.53133101852</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>44572.37574074074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>44283</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>44378</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3814,7 +3814,7 @@
         <v>44508.68315972222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>44700</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>44700</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>45236.53990740741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>44760.48230324074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>45119.36762731482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>45079.91148148148</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>44581</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>45181.59420138889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>45265.56513888889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>45054.62291666667</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>45524</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44956</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>44956</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>45218.43747685185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>44839</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44601.58469907408</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45195.59162037037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>45434.65297453704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45266.64285879629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44343.54256944444</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>44343</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>45539</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>45434.56768518518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>45770.6984837963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>45085.6996412037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>45414.41197916667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>45582.66775462963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44806.43237268519</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>45663</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>44875</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>45218.430625</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>45329</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>45798.48481481482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>44337.32231481482</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>45798.56791666667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>45223.46996527778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>45219.42969907408</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>44915.61844907407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45799.62875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45800.31851851852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45800.56219907408</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45602.46759259259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>45218.434375</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>45800.69119212963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>45800.69806712963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>45195.59732638889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45800.56804398148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44636.65648148148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44988.55334490741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45800.55723379629</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45212.38681712963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45800.57162037037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>45805.45325231482</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44980.34850694444</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>45757.66442129629</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>45547</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45811</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>45426</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45874</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>45888.89115740741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44970.40100694444</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44557</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45323.40289351852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45891</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>45546</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45347</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>44809.64534722222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>45141.65546296296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>45901.30445601852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>45818.59465277778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>45237</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45258.47685185185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45824.65828703704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45181.56402777778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>45903</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45909</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44242.47204861111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44303</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45824.47820601852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44370.59787037037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44414</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>45911.68001157408</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>45810.65920138889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>45700.60534722222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>45008.46077546296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>45826</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>44994</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>45827.61452546297</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>45826.95120370371</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45013.46271990741</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>45827.60854166667</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>45917.56575231482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>45917.56846064814</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>45744.68833333333</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>45418.43135416666</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45917.62997685185</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>45916.58863425926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>45917.61854166666</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>45191.65244212963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>44536.46300925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>45069.64538194444</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>45352.37434027778</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>45923.44113425926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>45203.60788194444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>45089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>45216.48012731481</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44911</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>45281.30539351852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>44257.49313657408</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>44460.38868055555</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>44644.41532407407</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>45930</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>45512</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
         <v>45930.6357175926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10610,7 +10610,7 @@
         <v>45930.65747685185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>45219</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>45933.6312962963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>45837.77806712963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>45933.64509259259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>45837.8068287037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>45933.64008101852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>45556.88484953704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>45530</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45842.46383101852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44467.30171296297</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45942.93530092593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45453.42097222222</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>45219.39407407407</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>45943</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>45842.46575231481</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>45107</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11589,7 +11589,7 @@
         <v>45719.66356481481</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>45798</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11703,7 +11703,7 @@
         <v>44474</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>44798.41548611111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>45846.47069444445</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>45583.6671875</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>45947.62369212963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>45244.83949074074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>45063</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>45428</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>45281.29634259259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>45281.29872685186</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>45861.555</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>45863.32291666666</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44984</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>45802.48922453704</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>45869</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>45882</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>45869</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>45868.56194444445</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>44928.47056712963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>45868.58482638889</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>45769.47458333334</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>45266</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>45562.48428240741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>45771.59141203704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44902</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44516</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44677.52666666666</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>45170.41726851852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44673.39659722222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44673.39770833333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>45769.46652777777</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>45874.81962962963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44578.39456018519</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44418</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>45961.50806712963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>45876.38861111111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>45880.42453703703</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>45961.50127314815</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>45670.35832175926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>45678.7609375</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>45678.76287037037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>45678.77015046297</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>45880.43133101852</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>45733.47277777778</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>45967.6405787037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>45161.80061342593</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>45643.46025462963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>45268</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>45730.66740740741</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44606.6459375</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>45968.46350694444</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44911.38021990741</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>44935</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>44935.54856481482</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>45473.77956018518</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>45218.44605324074</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44977</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>45974.64311342593</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>45974.44787037037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>45974.56116898148</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44887.44704861111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>45978.65131944444</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45747</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45614.80849537037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45225.64645833334</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15557,7 +15557,7 @@
         <v>45236</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>45980.48079861111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>45258.48143518518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         <v>45980.49359953704</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44565</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>46021.32947916666</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44992</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>45594</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>46029.35577546297</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>46029.36862268519</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>46029.36269675926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>45265.54988425926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>45265.55644675926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>45265.55729166666</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>45203</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>45378.75538194444</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>46034</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>45181.35542824074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>45547</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16702,7 +16702,7 @@
         <v>44461.34996527778</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>44956</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>44616.44555555555</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>45209.37945601852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44958.44938657407</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45470.5</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>44818.43640046296</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>45160</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44973.60834490741</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17215,7 +17215,7 @@
         <v>45092.59658564815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>46036</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>46036</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>45999.44767361111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>45742.63163194444</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>45594</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>45666.70684027778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>45678.75651620371</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>45678.75866898148</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45678.76875</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>46042.67481481482</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45558.33003472222</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44835</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>46042.80094907407</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>45266.66293981481</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45673.6791087963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>45281.30091435185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>45512</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>45428</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45077.3275462963</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45075.49745370371</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>46006.7902662037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>45680.74355324074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>46006.78265046296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>45275.29770833333</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44823.74258101852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>45155</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44999</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>46050</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44579.31209490741</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>45404.59559027778</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>46049</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>45306.81612268519</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>46049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>45281.30739583333</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>45040.40766203704</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>46049</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>46013.43255787037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>46013.43053240741</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>46049</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>46049</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>46049</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>46013.42674768518</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>46051</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>45080</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>45021.58115740741</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>45614.80997685185</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44461.34650462963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44992</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45476.59524305556</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>45127.60701388889</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>45564</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>45473.86574074074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44498.45456018519</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>45370.62961805556</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44553</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>45357.42295138889</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>45361.76549768518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>45191.63966435185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>45282.48534722222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>45026</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>45218.4646412037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>45117</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>44700.39484953704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>45281</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20965,7 +20965,7 @@
         <v>45240.40707175926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45625</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45196.56533564815</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21136,7 +21136,7 @@
         <v>44902.70481481482</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
         <v>45268</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21255,7 +21255,7 @@
         <v>45296.53465277778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44790.59928240741</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
         <v>44587.37592592592</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>45085</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44498.59428240741</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44601.58173611111</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44601.58780092592</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44572.34041666667</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>45707.6121412037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>45141</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>45407.67643518518</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>45054</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>45069.6466087963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>45210.69048611111</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>45707</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>45282.66887731481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>45593</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44531</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>45166.33351851852</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45532.63335648148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>45687.4494675926</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44844.66922453704</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45371.58354166667</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>45230.83997685185</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>45680.54928240741</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>45257</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>45090</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>45715</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45217</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45372.65918981482</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45678.76413194444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>44581.43471064815</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>44553.3641087963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>44810.89967592592</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>45671</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         <v>45344</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23332,7 +23332,7 @@
         <v>44848.38537037037</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>44333.80888888889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23446,7 +23446,7 @@
         <v>45678.75386574074</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>45678.77172453704</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>45230.39855324074</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>44463.6044675926</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>45258.47369212963</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>45080</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>44984</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>44370.60665509259</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>45275</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44950</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>45681.6758912037</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>45681.67857638889</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>45462</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>45372.6037037037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>45566.64170138889</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>45400.58571759259</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>45173</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>45306.79482638889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>45428.37866898148</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>45628.49255787037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>45265.54759259259</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45230.35402777778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45607.59543981482</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45581.38583333333</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24819,7 +24819,7 @@
         <v>45783.50890046296</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         <v>45609.58574074074</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24933,7 +24933,7 @@
         <v>45637.60519675926</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>45637.61474537037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>45784.54696759259</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>45609.57759259259</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>45609.64653935185</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>45784.54361111111</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>45785</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>45444.36789351852</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>45232.53655092593</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>45593</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25518,7 +25518,7 @@
         <v>45786.44407407408</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>45628.33141203703</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>45600.45695601852</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>45786.44797453703</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>45790.70548611111</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>45790.33270833334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25860,7 +25860,7 @@
         <v>45792.37166666667</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>45797</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>45797.47237268519</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -575,7 +575,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44743</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44818</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>45219</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>45700.35604166667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>45823.36462962963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44560</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>44879</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>44256</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44260.67784722222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44349.62545138889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44454</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44692.61546296296</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44467.30258101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44271.83804398148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44595.47152777778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>44700.65099537037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>44431</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>44495.63184027778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>44846.66921296297</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44303</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>44802.9119212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>44802.91436342592</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>44802</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44330.85519675926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44859.67766203704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>44474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44875.49847222222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>44638</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>44409</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>44258</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>44460</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>44802.91337962963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44802</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44365.29659722222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>44582</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>44788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>44788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>44378</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>44848.38094907408</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44837</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44638.41520833333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>44700</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44539.47350694444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>44344.65765046296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44642.53133101852</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>44572.37574074074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>44283</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>44378</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3814,7 +3814,7 @@
         <v>44508.68315972222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>44700</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>44700</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>45236.53990740741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>44760.48230324074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>45079.91148148148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>44581</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45119.36762731482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>45265.56513888889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>45524</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>45054.62291666667</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>44956</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>44956</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>45218.43747685185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>45181.59420138889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>44839</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44601.58469907408</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45195.59162037037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>45434.65297453704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44343.54256944444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>44343</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>45266.64285879629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>45434.56768518518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>45539</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>45085.6996412037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>45414.41197916667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>44992</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44806.43237268519</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>44875</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>45582.66775462963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>45663</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>45218.430625</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>45329</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>44601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>45602.46759259259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>44915.61844907407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>45223.46996527778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>45219.42969907408</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>45770.6984837963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>44636.65648148148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>45195.59732638889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>44988.55334490741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>45212.38681712963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>44980.34850694444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45547</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>44557</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6538,7 +6538,7 @@
         <v>45323.40289351852</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>45546</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>45347</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44337.32231481482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>45426</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44809.64534722222</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44970.40100694444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>45218.434375</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45818.59465277778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>45141.65546296296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>45237</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>45757.66442129629</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>45824.65828703704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>45824.47820601852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>45874</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45888.89115740741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>45258.47685185185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>45891</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45181.56402777778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>45826</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>45827.61452546297</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>45826.95120370371</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45827.60854166667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>45418.43135416666</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44303</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>44370.59787037037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>44414</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>45008.46077546296</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>44994</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>45013.46271990741</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>45901.30445601852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>45744.68833333333</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45191.65244212963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44536.46300925926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45069.64538194444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>45352.37434027778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>45837.77806712963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>45903</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>45909</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>45837.8068287037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>45203.60788194444</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>45089</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>45216.48012731481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44911</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>45911.68001157408</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45810.65920138889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>45700.60534722222</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>45842.46383101852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>45281.30539351852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44257.49313657408</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>45842.46575231481</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45107</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45719.66356481481</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>45798</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44460.38868055555</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>44644.41532407407</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>45846.47069444445</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>45917.56575231482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>45917.56846064814</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>45917.62997685185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>45512</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>45916.58863425926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>45917.61854166666</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>45219</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>45556.88484953704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>45861.555</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>45923.44113425926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>45863.32291666666</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>45802.48922453704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>45530</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45869</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>45882</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>45869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>45868.56194444445</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>45868.58482638889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>45769.47458333334</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44467.30171296297</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>45453.42097222222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>45219.39407407407</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>45170.41726851852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44673.39659722222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44673.39770833333</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>45769.46652777777</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>45930</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>45874.81962962963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>45930.6357175926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>45930.65747685185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44474</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44798.41548611111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>45933.6312962963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>45583.6671875</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>45933.64509259259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>45933.64008101852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>45876.38861111111</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>45880.42453703703</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>45244.83949074074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>45880.43133101852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>45063</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>45428</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>45281.29634259259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>45281.29872685186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>45218.44605324074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44984</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44928.47056712963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>45942.93530092593</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>45266</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>45562.48428240741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>45943</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>45771.59141203704</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44902</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44516</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44677.52666666666</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>45947.62369212963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44578.39456018519</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44418</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>45670.35832175926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45678.7609375</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45678.76287037037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45678.77015046297</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>45733.47277777778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>45161.80061342593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>45643.46025462963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>45268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>45730.66740740741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44606.6459375</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44911.38021990741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>45000</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44935</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44935.54856481482</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45473.77956018518</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45961.50806712963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44977</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44977</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45961.50127314815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44887.44704861111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45747</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>45967.6405787037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>45614.80849537037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>45225.64645833334</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>45236</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>45258.48143518518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>45968.46350694444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44565</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44992</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>45267</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>45974.64311342593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>45594</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>45974.44787037037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45974.56116898148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>45265.54988425926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>45265.55644675926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>45978.65131944444</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>45265.55729166666</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>45203</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45980.48079861111</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>45980.49359953704</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>45378.75538194444</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>45181.35542824074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>45547</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>44461.34996527778</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         <v>44956</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>46034</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>44616.44555555555</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>45209.37945601852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>44958.44938657407</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>45470.5</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44818.43640046296</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>45160</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44973.60834490741</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>45092.59658564815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>45742.63163194444</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>45594</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>45666.70684027778</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>46036</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>46036</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>45678.75651620371</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>45678.75866898148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>45678.76875</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>45999.44767361111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>45558.33003472222</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>44835</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>45266.66293981481</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>45673.6791087963</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>45281.30091435185</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>45512</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>45428</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>46042.67481481482</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>46042.80094907407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>45077.3275462963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>45075.49745370371</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>45680.74355324074</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>45275.29770833333</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>46006.7902662037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44823.74258101852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>46006.78265046296</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>45155</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>44999</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>44579.31209490741</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>45404.59559027778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>45306.81612268519</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>45281.30739583333</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>45040.40766203704</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>46050</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>46049</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>46049</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>46049</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>46013.43255787037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>46013.43053240741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         <v>46049</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>46049</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>46049</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>46013.42674768518</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>45080</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>45021.58115740741</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45614.80997685185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>46051</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44461.34650462963</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44992</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>45476.59524305556</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>45127.60701388889</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>46021.32947916666</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>46063.30697916666</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>45564</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>45473.86574074074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>46062.6469212963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>44498.45456018519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45370.62961805556</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44553</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>46064.56519675926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>45357.42295138889</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>45361.76549768518</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>45191.63966435185</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>45282.48534722222</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>46069.56819444444</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>46069.56936342592</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20048,7 +20048,7 @@
         <v>46069.57060185185</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>45026</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45218.4646412037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45117</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44700.39484953704</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>45281</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>46069.56532407407</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>46069.56706018518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45240.40707175926</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45625</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>46029.36269675926</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>46029.36862268519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>46029.35577546297</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45196.56533564815</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44902.70481481482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45268</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>45296.53465277778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44790.59928240741</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44587.37592592592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>45085</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44498.59428240741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44601.58173611111</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44601.58780092592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44572.34041666667</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>45707.6121412037</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>45141</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>45407.67643518518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>45054</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>45069.6466087963</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>45210.69048611111</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>45707</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>45282.66887731481</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>45593</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44531</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>45166.33351851852</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45532.63335648148</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45687.4494675926</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44844.66922453704</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>45371.58354166667</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>45230.83997685185</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45680.54928240741</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45257</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>45715</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45217</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45372.65918981482</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45678.76413194444</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44581.43471064815</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44553.3641087963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44810.89967592592</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45671</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45344</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44848.38537037037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44333.80888888889</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45678.75386574074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>45678.77172453704</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>45230.39855324074</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44463.6044675926</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>45258.47369212963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
         <v>45080</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
         <v>44984</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>44370.60665509259</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>45275</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>45681.6758912037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>45681.67857638889</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>45462</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45372.6037037037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>45566.64170138889</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>45400.58571759259</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>45173</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>45306.79482638889</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>45428.37866898148</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>45628.49255787037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>45265.54759259259</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>45230.35402777778</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>45607.59543981482</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24497,7 +24497,7 @@
         <v>45581.38583333333</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>45783.50890046296</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>45609.58574074074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24668,7 +24668,7 @@
         <v>45637.60519675926</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>45637.61474537037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>45784.54696759259</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>45609.57759259259</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45609.64653935185</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>45784.54361111111</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>45785</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>45444.36789351852</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>45232.53655092593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>45593</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>45786.44407407408</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>45628.33141203703</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>45600.45695601852</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>45786.44797453703</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>45790.70548611111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>45790.33270833334</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25595,7 +25595,7 @@
         <v>45792.37166666667</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>45797</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>45797.47237268519</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>45798.48481481482</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>45798.56791666667</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>45799.62875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>45800.31851851852</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>45800.56219907408</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>45800.69119212963</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>45800.69806712963</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>45800.56804398148</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         <v>45800.55723379629</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26284,7 +26284,7 @@
         <v>45800.57162037037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>45805.45325231482</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>45811</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -575,7 +575,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44743</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44818</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>45219</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>45700.35604166667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>45823.36462962963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>44818</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44560</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>44879</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>44256</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44260.67784722222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44349.62545138889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44454</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44692.61546296296</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44467.30258101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44271.83804398148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44595.47152777778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>44700.65099537037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>44431</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>44495.63184027778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>44846.66921296297</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44303</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>44802.9119212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>44802.91436342592</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>44802</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44330.85519675926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44859.67766203704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>44474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44875.49847222222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>44638</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>44409</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>44258</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>44460</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>44802.91337962963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44802</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44365.29659722222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>44582</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>44788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>44788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>44378</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>44848.38094907408</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44837</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44638.41520833333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>44700</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44539.47350694444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>44344.65765046296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44642.53133101852</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>44572.37574074074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>44283</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>44378</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3814,7 +3814,7 @@
         <v>44508.68315972222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>44700</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>44700</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>45236.53990740741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>44760.48230324074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>45079.91148148148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>44581</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45119.36762731482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>45265.56513888889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>45524</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>45054.62291666667</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>44956</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>44956</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>45218.43747685185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>45181.59420138889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>44839</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44601.58469907408</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45419</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45195.59162037037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>45434.65297453704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44343.54256944444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>44343</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>45266.64285879629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>45434.56768518518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>45539</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>45085.6996412037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>45414.41197916667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>44992</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44806.43237268519</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>44875</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>45582.66775462963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>45663</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>45218.430625</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>45329</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>44601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>45602.46759259259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>44915.61844907407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>45223.46996527778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>45219.42969907408</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>45770.6984837963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>44636.65648148148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>45195.59732638889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>44988.55334490741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>45212.38681712963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>44980.34850694444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45547</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>44557</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6538,7 +6538,7 @@
         <v>45323.40289351852</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>45546</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>45347</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44337.32231481482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>45426</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44809.64534722222</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44970.40100694444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>45218.434375</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45818.59465277778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>45141.65546296296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>45237</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>45757.66442129629</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>45824.65828703704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>45824.47820601852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>45874</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45888.89115740741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>45258.47685185185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>45891</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45181.56402777778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>45826</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>45827.61452546297</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>45826.95120370371</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45827.60854166667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>45418.43135416666</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44303</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>44370.59787037037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>44414</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>45008.46077546296</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>44994</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>45013.46271990741</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>45901.30445601852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>45744.68833333333</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45191.65244212963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44536.46300925926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45069.64538194444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>45352.37434027778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>45837.77806712963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>45903</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>45909</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>45837.8068287037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>45203.60788194444</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>45089</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>45216.48012731481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44911</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>45911.68001157408</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45810.65920138889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>45700.60534722222</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>45842.46383101852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>45281.30539351852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44257.49313657408</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>45842.46575231481</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45107</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45719.66356481481</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>45798</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44460.38868055555</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>44644.41532407407</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>45846.47069444445</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>45917.56575231482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>45917.56846064814</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>45917.62997685185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>45512</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>45916.58863425926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>45917.61854166666</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>45219</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>45556.88484953704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>45861.555</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>45923.44113425926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>45863.32291666666</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>45802.48922453704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>45530</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45869</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>45882</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>45869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>45868.56194444445</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>45868.58482638889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>45769.47458333334</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44467.30171296297</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>45453.42097222222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>45219.39407407407</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>45170.41726851852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44673.39659722222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44673.39770833333</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>45769.46652777777</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>45930</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>45874.81962962963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>45930.6357175926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>45930.65747685185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44474</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44798.41548611111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>45933.6312962963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>45583.6671875</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>45933.64509259259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>45933.64008101852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>45876.38861111111</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>45880.42453703703</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>45244.83949074074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>45880.43133101852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>45063</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>45428</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>45281.29634259259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>45281.29872685186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>45218.44605324074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44984</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44928.47056712963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>45942.93530092593</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>45266</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>45562.48428240741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>45943</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>45771.59141203704</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44902</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44516</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44677.52666666666</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>45947.62369212963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44578.39456018519</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44418</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>45670.35832175926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45678.7609375</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45678.76287037037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45678.77015046297</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>45733.47277777778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>45161.80061342593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>45643.46025462963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>45268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>45730.66740740741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44606.6459375</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44911.38021990741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>45000</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44935</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44935.54856481482</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45473.77956018518</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45961.50806712963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44977</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44977</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45961.50127314815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44887.44704861111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45747</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>45967.6405787037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>45614.80849537037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>45225.64645833334</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>45236</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>45258.48143518518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>45968.46350694444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44565</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44992</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>45267</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>45974.64311342593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>45594</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>45974.44787037037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45974.56116898148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>45265.54988425926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>45265.55644675926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>45978.65131944444</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>45265.55729166666</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>45203</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45980.48079861111</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>45980.49359953704</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>45378.75538194444</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>45181.35542824074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>45547</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>44461.34996527778</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         <v>44956</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>46034</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>44616.44555555555</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>45209.37945601852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>44958.44938657407</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>45470.5</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44818.43640046296</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>45160</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44973.60834490741</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>45092.59658564815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>45742.63163194444</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>45594</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>45666.70684027778</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>46036</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>46036</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>45678.75651620371</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>45678.75866898148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>45678.76875</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>45999.44767361111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>45558.33003472222</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>44835</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>45266.66293981481</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>45673.6791087963</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>45281.30091435185</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>45512</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>45428</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>46042.67481481482</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>46042.80094907407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>45077.3275462963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>45075.49745370371</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>45680.74355324074</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>45275.29770833333</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>46006.7902662037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44823.74258101852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>46006.78265046296</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>45155</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>44999</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>44579.31209490741</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>45404.59559027778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>45306.81612268519</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>45281.30739583333</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>45040.40766203704</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>46050</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>46049</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>46049</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>46049</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>46013.43255787037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>46013.43053240741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         <v>46049</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>46049</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>46049</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>46013.42674768518</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>45080</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>45021.58115740741</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45614.80997685185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>46051</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44461.34650462963</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44992</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>45476.59524305556</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>45127.60701388889</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>46021.32947916666</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>46063.30697916666</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>45564</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>45473.86574074074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>46062.6469212963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>44498.45456018519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45370.62961805556</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44553</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>46064.56519675926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>45357.42295138889</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>45361.76549768518</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>45191.63966435185</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>45282.48534722222</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>46069.56819444444</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>46069.56936342592</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20048,7 +20048,7 @@
         <v>46069.57060185185</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>45026</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45218.4646412037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45117</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44700.39484953704</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>45281</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>46069.56532407407</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>46069.56706018518</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45240.40707175926</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45625</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>46029.36269675926</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>46029.36862268519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>46029.35577546297</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45196.56533564815</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44902.70481481482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45268</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>45296.53465277778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44790.59928240741</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44587.37592592592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>45085</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44498.59428240741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44601.58173611111</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44601.58780092592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44572.34041666667</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>45707.6121412037</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>45141</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>45407.67643518518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>45054</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>45069.6466087963</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>45210.69048611111</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>45707</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>45282.66887731481</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>45593</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44531</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>45166.33351851852</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45532.63335648148</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45687.4494675926</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44844.66922453704</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>45371.58354166667</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>45230.83997685185</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45680.54928240741</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45257</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>45715</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45217</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45372.65918981482</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45678.76413194444</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44581.43471064815</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44553.3641087963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44810.89967592592</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45671</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45344</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44848.38537037037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44333.80888888889</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45678.75386574074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>45678.77172453704</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>45230.39855324074</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44463.6044675926</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>45258.47369212963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
         <v>45080</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
         <v>44984</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>44370.60665509259</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>45275</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>45681.6758912037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>45681.67857638889</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>45462</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45372.6037037037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>45566.64170138889</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>45400.58571759259</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>45173</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>45306.79482638889</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>45428.37866898148</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>45628.49255787037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>45265.54759259259</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>45230.35402777778</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>45607.59543981482</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24497,7 +24497,7 @@
         <v>45581.38583333333</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>45783.50890046296</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>45609.58574074074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24668,7 +24668,7 @@
         <v>45637.60519675926</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>45637.61474537037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>45784.54696759259</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>45609.57759259259</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45609.64653935185</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>45784.54361111111</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>45785</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>45444.36789351852</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>45232.53655092593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>45593</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>45786.44407407408</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>45628.33141203703</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>45600.45695601852</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>45786.44797453703</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>45790.70548611111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>45790.33270833334</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25595,7 +25595,7 @@
         <v>45792.37166666667</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>45797</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>45797.47237268519</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>45798.48481481482</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>45798.56791666667</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>45799.62875</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>45800.31851851852</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>45800.56219907408</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>45800.69119212963</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>45800.69806712963</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>45800.56804398148</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         <v>45800.55723379629</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26284,7 +26284,7 @@
         <v>45800.57162037037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>45805.45325231482</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>45811</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>

--- a/Översikt MARKARYD.xlsx
+++ b/Översikt MARKARYD.xlsx
@@ -575,7 +575,7 @@
         <v>44393</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44743</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44818</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>45219</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>45823.36462962963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>44818</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>45700.35604166667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44560</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>44879</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>44256</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44260.67784722222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44349.62545138889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44454</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44692.61546296296</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44271.83804398148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44467.30258101852</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44595.47152777778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>44700.65099537037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44409</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>44431</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>44495.63184027778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>44846.66921296297</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44303</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>44802.9119212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>44802.91436342592</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>44802</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44330.85519675926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44859.67766203704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>44474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44875.49847222222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>44638</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>44409</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>44258</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>44460</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>44802.91337962963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44802</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44802</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44365.29659722222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>44582</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>44788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>44788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>44378</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>44837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44848.38094907408</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>44638.41520833333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>44700</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44539.47350694444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>44344.65765046296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44642.53133101852</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>44572.37574074074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>44283</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>44378</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3814,7 +3814,7 @@
         <v>44508.68315972222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>44700</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>44700</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>45275</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>44988.55334490741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>45196.56533564815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>45054.62291666667</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>45512</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>44810.89967592592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>45771.59141203704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>45546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45414.41197916667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>45069.64538194444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>44823.74258101852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>45371.58354166667</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>45008.46077546296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>45219.39407407407</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>44414</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>45217</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>45747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>45426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>45370.62961805556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>45428.37866898148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45265.55729166666</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45378.75538194444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44474</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45532.63335648148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>45453.42097222222</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45040.40766203704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44806.43237268519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45265.54759259259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45244.83949074074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45419</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45275.29770833333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44848.38537037037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>45266.66293981481</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>45530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>45539</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44835</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>44498.45456018519</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>44579.31209490741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>45085.6996412037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>44875</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44498.59428240741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44587.37592592592</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>45357.42295138889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45361.76549768518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45203.60788194444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45805.45325231482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>45556.88484953704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45216.48012731481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>45744.68833333333</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>45562.48428240741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44553</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44337.32231481482</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>45757.66442129629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>45218.434375</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>45874</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>45127.60701388889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>45811</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44950</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>45026</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>45687.4494675926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>45237</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>45818.59465277778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>45888.89115740741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>45372.65918981482</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45891</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>45583.6671875</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>45824.47820601852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>45824.65828703704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>45826</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>45678.75651620371</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45678.75866898148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>45678.76875</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>45827.61452546297</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>45209.37945601852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>45827.60854166667</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>45826.95120370371</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44984</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44977</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>45901.30445601852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>45218.43747685185</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>45418.43135416666</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>45089</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>44257.49313657408</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>45903</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>45219.42969907408</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>45707</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>45434.56768518518</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>45282.66887731481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>45837.8068287037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>45268</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45837.77806712963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45267</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>45258.47685185185</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>45798</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45079.91148148148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>45080</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>45842.46383101852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>45842.46575231481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>45719.66356481481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>45846.47069444445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>45107</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>45911.68001157408</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44343</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>45700.60534722222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44984</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>45810.65920138889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>45473.77956018518</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>45680.74355324074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>44956</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>45678.7609375</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>45678.76287037037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>45678.77015046297</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>45916.58863425926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>45663</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>45614.80849537037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45917.62997685185</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45917.61854166666</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45861.555</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>45917.56575231482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>45917.56846064814</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>45802.48922453704</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>45863.32291666666</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>45868.58482638889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>45868.56194444445</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44798.41548611111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>45923.44113425926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>45869</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>45882</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45869</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45930</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>45769.46652777777</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>45930.6357175926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>45930.65747685185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44303</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>45170.41726851852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>45769.47458333334</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45733.47277777778</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44673.39659722222</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44673.39770833333</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44977</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>45876.38861111111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>45874.81962962963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44370.59787037037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>44370.60665509259</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>45880.42453703703</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>45092.59658564815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>45476.59524305556</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>45880.43133101852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45218.44605324074</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>44839</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>45933.64008101852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>45933.6312962963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>45933.64509259259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>45212.38681712963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>45770.6984837963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>45203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>45075.49745370371</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>44994</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45281.30091435185</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45942.93530092593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44418</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44844.66922453704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>45943</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45670.35832175926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44461.34996527778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44902.70481481482</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45077.3275462963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45947.62369212963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44467.30171296297</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44970.40100694444</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45558.33003472222</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44915.61844907407</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45344</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45265.54988425926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45265.55644675926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45054</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45742.63163194444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45161.80061342593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45069.6466087963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45281.30539351852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44463.6044675926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45961.50806712963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45961.50127314815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>44572.34041666667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>45258.47369212963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>45258.48143518518</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>45063</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>44460.38868055555</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>45329</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>45967.6405787037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>45968.46350694444</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15242,7 +15242,7 @@
         <v>45347</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15299,7 +15299,7 @@
         <v>45021.58115740741</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
         <v>44992</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>45594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45974.44787037037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>45524</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>45974.64311342593</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>45974.56116898148</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45306.79482638889</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45978.65131944444</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45166.33351851852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45593</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44636.65648148148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>45980.48079861111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>45980.49359953704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>45582.66775462963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>44516</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>45547</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>45191.65244212963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>45085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>45512</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44536.46300925926</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>45473.86574074074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>44581</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>45230.83997685185</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16739,7 +16739,7 @@
         <v>45999.44767361111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>46042.67481481482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>46042.80094907407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>45090</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>45191.63966435185</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>45673.6791087963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>45678.75386574074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>45678.77172453704</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>45117</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>45434.65297453704</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>45625</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>45666.70684027778</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>45141.65546296296</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44677.52666666666</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>45080</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>44818.43640046296</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>46006.7902662037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>46006.78265046296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>45181.35542824074</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>45181.56402777778</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>45160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>46049</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>46050</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>46049</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>46049</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>46013.43255787037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>46049</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>45681.6758912037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>45681.67857638889</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>46051</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>46013.43053240741</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>46013.42674768518</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>45400.58571759259</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>46049</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>46049</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>45181.59420138889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>45219</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>45643.46025462963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>44790.59928240741</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>46062.6469212963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>45266.64285879629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>45281</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>46063.30697916666</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>45296.53465277778</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>45680.54928240741</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>46064.56519675926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>45306.81612268519</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>46021.32947916666</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>45257</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>45230.39855324074</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>45281.30739583333</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45240.40707175926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44343.54256944444</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45173</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>45265.56513888889</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>46069.56819444444</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>46069.56936342592</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20033,7 +20033,7 @@
         <v>46069.57060185185</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>46069.56706018518</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>46069.56532407407</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>46029.36269675926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>45268</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45594</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>46029.35577546297</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20452,7 +20452,7 @@
         <v>45195.59162037037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>46029.36862268519</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>46034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>45236.53990740741</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>45323.40289351852</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20737,7 +20737,7 @@
         <v>45628.49255787037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>44935</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>44935.54856481482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>44553.3641087963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20965,7 +20965,7 @@
         <v>44911.38021990741</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>44333.80888888889</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>44461.34650462963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21136,7 +21136,7 @@
         <v>45000</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>44601</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44606.6459375</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44581.43471064815</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>46036</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44531</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44809.64534722222</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45566.64170138889</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44992</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>46036</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>45119.36762731482</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>45281.29634259259</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>45281.29872685186</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44644.41532407407</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>45236</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>45462</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>45223.46996527778</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>44887.44704861111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>44578.39456018519</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>45602.46759259259</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>45428</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>44616.44555555555</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>44760.48230324074</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         <v>44911</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>44973.60834490741</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44601.58173611111</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22710,7 +22710,7 @@
         <v>44601.58780092592</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44700.39484953704</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>45678.76413194444</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>45218.4646412037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>45470.5</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>45225.64645833334</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44928.47056712963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44956</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44956</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>45372.6037037037</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>45282.48534722222</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>45013.46271990741</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>45404.59559027778</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44958.44938657407</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>45547</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45195.59732638889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45671</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45155</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45614.80997685185</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45707.6121412037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>45266</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23917,7 +23917,7 @@
         <v>45210.69048611111</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44980.34850694444</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44601.58469907408</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>45715</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>45407.67643518518</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>45352.37434027778</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>45730.66740740741</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>45218.430625</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>45428</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44999</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>45230.35402777778</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>45607.59543981482</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>45581.38583333333</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>45783.50890046296</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>45609.58574074074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>45609.64653935185</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>45784.54696759259</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>45784.54361111111</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24958,7 +24958,7 @@
         <v>45609.57759259259</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>45637.61474537037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>45637.60519675926</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25139,7 +25139,7 @@
         <v>45786.44797453703</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>45444.36789351852</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>45600.45695601852</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>45785</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>45786.44407407408</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>45593</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>45232.53655092593</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>45628.33141203703</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>45790.70548611111</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25657,7 +25657,7 @@
         <v>45790.33270833334</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>45792.37166666667</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>45797</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>45798.56791666667</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>45797.47237268519</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>45798.48481481482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>45800.56219907408</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>45800.55723379629</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>45800.69119212963</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>45800.69806712963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>45800.31851851852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>45800.56804398148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>45800.57162037037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>45799.62875</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
